--- a/Evaluation/statistics-jrrt-consistent.xlsx
+++ b/Evaluation/statistics-jrrt-consistent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chixiaye/paper/EvaluationPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322522BD-D5FD-BE49-B092-7E22B2733C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42665C54-86A6-A147-B6B3-678507A60461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="500" windowWidth="27840" windowHeight="15680" activeTab="5" xr2:uid="{B02152EE-430F-CC4F-9C16-EBA6B44C29D8}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27840" windowHeight="15680" activeTab="5" xr2:uid="{B02152EE-430F-CC4F-9C16-EBA6B44C29D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chart!$A$1:$C$179</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Closure!$A$1:$E$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chart!$A$1:$C$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Closure!$A$1:$E$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lang!$A$1:$D$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Math!$B$1:$B$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Math!$B$1:$B$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mockito!$A$1:$E$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Time!$A$1:$E$95</definedName>
   </definedNames>
@@ -39,9 +39,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BCB016-A73B-DA4D-A40E-4F05B42245FB}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>2918</v>
+        <v>2937</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>2937</v>
+        <v>2982</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>2982</v>
+        <v>2991</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
@@ -1301,7 +1304,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>2991</v>
+        <v>3020</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>3024</v>
+        <v>3084</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>3084</v>
+        <v>3107</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
@@ -1333,7 +1336,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>3107</v>
+        <v>3114</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
@@ -1341,7 +1344,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>3114</v>
+        <v>3168</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -1349,7 +1352,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>3168</v>
+        <v>3208</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
@@ -1357,7 +1360,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>3208</v>
+        <v>3230</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>3230</v>
+        <v>3239</v>
       </c>
       <c r="B99" s="2">
         <v>1</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="B100" s="2">
         <v>1</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>3240</v>
+        <v>3344</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>3344</v>
+        <v>3367</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>3367</v>
+        <v>3377</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>3380</v>
+        <v>3406</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>3406</v>
+        <v>3426</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>3426</v>
+        <v>3456</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>3456</v>
+        <v>3559</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -1445,7 +1448,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>3559</v>
+        <v>3577</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>3577</v>
+        <v>3587</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>3587</v>
+        <v>3619</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>3619</v>
+        <v>3629</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>3629</v>
+        <v>3659</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>3659</v>
+        <v>3667</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>3667</v>
+        <v>3731</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>3733</v>
+        <v>3805</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>3805</v>
+        <v>3838</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>3838</v>
+        <v>3879</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>3879</v>
+        <v>3927</v>
       </c>
       <c r="B120" s="2">
         <v>1</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>3927</v>
+        <v>3945</v>
       </c>
       <c r="B121" s="2">
         <v>1</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>3945</v>
+        <v>3957</v>
       </c>
       <c r="B122" s="2">
         <v>1</v>
@@ -1557,7 +1560,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>3957</v>
+        <v>3977</v>
       </c>
       <c r="B123" s="2">
         <v>1</v>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>3977</v>
+        <v>4017</v>
       </c>
       <c r="B124" s="2">
         <v>1</v>
@@ -1573,7 +1576,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>4017</v>
+        <v>4092</v>
       </c>
       <c r="B125" s="2">
         <v>1</v>
@@ -1581,7 +1584,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>4092</v>
+        <v>4101</v>
       </c>
       <c r="B126" s="2">
         <v>1</v>
@@ -1589,7 +1592,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>4101</v>
+        <v>4156</v>
       </c>
       <c r="B127" s="2">
         <v>1</v>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>4156</v>
+        <v>4188</v>
       </c>
       <c r="B128" s="2">
         <v>1</v>
@@ -1605,7 +1608,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>4188</v>
+        <v>4213</v>
       </c>
       <c r="B129" s="2">
         <v>1</v>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>4213</v>
+        <v>4222</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
@@ -1621,7 +1624,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>4222</v>
+        <v>4293</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>4293</v>
+        <v>4301</v>
       </c>
       <c r="B132" s="2">
         <v>1</v>
@@ -1637,7 +1640,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>4301</v>
+        <v>4318</v>
       </c>
       <c r="B133" s="2">
         <v>1</v>
@@ -1645,7 +1648,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>4318</v>
+        <v>4336</v>
       </c>
       <c r="B134" s="2">
         <v>1</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>4336</v>
+        <v>4410</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>4410</v>
+        <v>4416</v>
       </c>
       <c r="B136" s="2">
         <v>1</v>
@@ -1669,17 +1672,9 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>4416</v>
+        <v>4422</v>
       </c>
       <c r="B137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2">
-        <v>4422</v>
-      </c>
-      <c r="B138" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1692,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30FB60-26EE-1C4B-9EA6-E1CB5F9ABA73}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -2148,7 +2143,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -2156,7 +2151,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>2175</v>
+        <v>2220</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -2164,7 +2159,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>2220</v>
+        <v>2288</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
@@ -2172,7 +2167,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>2288</v>
+        <v>2362</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -2180,7 +2175,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>2362</v>
+        <v>2374</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
@@ -2188,7 +2183,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>2374</v>
+        <v>2407</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -2196,7 +2191,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>2407</v>
+        <v>2484</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -2204,7 +2199,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>2484</v>
+        <v>2494</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -2212,7 +2207,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>2494</v>
+        <v>2564</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -2220,7 +2215,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>2564</v>
+        <v>2653</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -2228,19 +2223,14 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>2655</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1</v>
-      </c>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3"/>
@@ -2449,12 +2439,9 @@
     <row r="178" spans="1:1">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="3"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E187">
-    <sortCondition ref="A77:A187"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E186">
+    <sortCondition ref="A76:A186"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2466,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA7DFD6-8A28-B340-85C2-E8D3A892D9BA}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3107,7 +3094,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -3225,8 +3212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB823A4A-915D-3447-9DF4-F1B414010CDA}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A17" zoomScale="118" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -3467,10 +3454,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A42BC9-498A-9F40-9AB1-EAA224D4BD5C}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -4482,25 +4469,20 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>4316</v>
+        <v>4319</v>
       </c>
       <c r="B125" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
-        <v>4319</v>
-      </c>
-      <c r="B126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="9" customFormat="1">
-      <c r="A127" s="10"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+    <row r="126" spans="1:4" s="9" customFormat="1">
+      <c r="A126" s="10"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2"/>
@@ -4515,7 +4497,7 @@
       <c r="A131" s="2"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="2"/>
+      <c r="A132" s="5"/>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="5"/>
@@ -4645,9 +4627,6 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="5"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6649,7 +6628,7 @@
     </row>
     <row r="228" spans="3:3">
       <c r="C228">
-        <f t="shared" ref="C194:C257" si="4">IF(COUNTIF(A:A,B228)&gt;0,,B228)</f>
+        <f t="shared" ref="C228:C257" si="4">IF(COUNTIF(A:A,B228)&gt;0,,B228)</f>
         <v>0</v>
       </c>
     </row>
